--- a/Plan/Table/Test_Data/02.Exp_Table.xlsx
+++ b/Plan/Table/Test_Data/02.Exp_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4516FE42-1834-4527-8AE5-B1B75FDA78B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF87C27-21D8-4365-BF68-8817622975D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BA6CDDC2-C9A8-4ED1-A24A-386D3C711E85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{32EAAF73-9517-4F50-BF1C-0BF45E925194}"/>
   </bookViews>
   <sheets>
     <sheet name="02.Exp_Table" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54911517-3E77-45C1-A89A-2E77B971FBE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B0DD08-E2D6-412F-9D54-4FC13495A31A}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B100"/>
   <sheetViews>

--- a/Plan/Table/Test_Data/02.Exp_Table.xlsx
+++ b/Plan/Table/Test_Data/02.Exp_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF87C27-21D8-4365-BF68-8817622975D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B50043E-129D-46E5-95AB-E77EA1BAB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{32EAAF73-9517-4F50-BF1C-0BF45E925194}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F946656D-73C1-434C-BF87-7DD64EBC3404}"/>
   </bookViews>
   <sheets>
     <sheet name="02.Exp_Table" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>level</t>
   </si>
   <si>
     <t>next_hero_lv_need_exp</t>
+  </si>
+  <si>
+    <t>next_stage_lv_count</t>
   </si>
 </sst>
 </file>
@@ -424,814 +427,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B0DD08-E2D6-412F-9D54-4FC13495A31A}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31CB579-897B-4421-88CD-3BE3BE73907A}">
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
+      </c>
+      <c r="C100">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Test_Data/02.Exp_Table.xlsx
+++ b/Plan/Table/Test_Data/02.Exp_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B50043E-129D-46E5-95AB-E77EA1BAB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{348EC234-87A2-4877-A4AE-C8206B65C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F946656D-73C1-434C-BF87-7DD64EBC3404}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{043AD6EA-FFE2-47A4-95A4-3DE9DD8EEB61}"/>
   </bookViews>
   <sheets>
     <sheet name="02.Exp_Table" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>level</t>
   </si>
   <si>
     <t>next_hero_lv_need_exp</t>
-  </si>
-  <si>
-    <t>next_stage_lv_count</t>
   </si>
 </sst>
 </file>
@@ -427,1113 +424,813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31CB579-897B-4421-88CD-3BE3BE73907A}">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDC42E6-A706-4BFB-9C83-029EBBFD3A53}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>5</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>5</v>
       </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>5</v>
       </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>5</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>5</v>
       </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
-      </c>
-      <c r="C100">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
